--- a/international/carte_interactive/static/carte_interactive/data/data_backup.xlsx
+++ b/international/carte_interactive/static/carte_interactive/data/data_backup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -760,9 +760,6 @@
     <t>ISAM-IAE Nancy</t>
   </si>
   <si>
-    <t>25 rue Baron Louis - - CS 10399</t>
-  </si>
-  <si>
     <t>Nancy Cedex</t>
   </si>
   <si>
@@ -1925,6 +1922,9 @@
   </si>
   <si>
     <t>5 boulevard Descartes</t>
+  </si>
+  <si>
+    <t>25 rue Baron Louis - CS 10399</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2272,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2282,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A214" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2319,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -2328,13 +2328,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2353,7 +2353,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2370,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -2381,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2394,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2420,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2433,14 +2433,14 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K5" s="2">
         <v>1234</v>
@@ -2452,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -2465,7 +2465,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2478,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2493,7 +2493,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>24</v>
@@ -2510,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -2523,7 +2523,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>31</v>
@@ -2538,7 +2538,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -2549,7 +2549,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2566,7 +2566,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -2577,7 +2577,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2590,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
@@ -2603,14 +2603,14 @@
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -2620,7 +2620,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
@@ -2633,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>42</v>
@@ -2648,7 +2648,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>43</v>
@@ -2663,7 +2663,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>46</v>
@@ -2678,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>47</v>
@@ -2691,12 +2691,12 @@
         <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K14" s="2">
         <v>1234</v>
@@ -2708,7 +2708,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>50</v>
@@ -2723,7 +2723,7 @@
         <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
@@ -2738,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>55</v>
@@ -2751,7 +2751,7 @@
         <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>58</v>
@@ -2768,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>59</v>
@@ -2783,7 +2783,7 @@
         <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>63</v>
@@ -2798,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>64</v>
@@ -2809,7 +2809,7 @@
         <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2822,7 +2822,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>66</v>
@@ -2833,7 +2833,7 @@
         <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2846,7 +2846,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>68</v>
@@ -2861,7 +2861,7 @@
         <v>71</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>72</v>
@@ -2878,7 +2878,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>75</v>
@@ -2893,14 +2893,14 @@
         <v>71</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -2910,7 +2910,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>78</v>
@@ -2925,7 +2925,7 @@
         <v>81</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>82</v>
@@ -2940,7 +2940,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>83</v>
@@ -2955,7 +2955,7 @@
         <v>86</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2968,7 +2968,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>87</v>
@@ -2981,7 +2981,7 @@
         <v>89</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>90</v>
@@ -2996,7 +2996,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>91</v>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>93</v>
@@ -3022,7 +3022,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>94</v>
@@ -3033,7 +3033,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -3048,7 +3048,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>96</v>
@@ -3057,13 +3057,13 @@
         <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>198</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H27" s="2">
         <v>63178</v>
@@ -3078,7 +3078,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>99</v>
@@ -3089,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -3106,7 +3106,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>100</v>
@@ -3119,14 +3119,14 @@
         <v>102</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>103</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K29" s="2">
         <v>1234</v>
@@ -3138,7 +3138,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>104</v>
@@ -3149,7 +3149,7 @@
         <v>105</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3162,7 +3162,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>106</v>
@@ -3177,7 +3177,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>109</v>
@@ -3192,7 +3192,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>110</v>
@@ -3207,7 +3207,7 @@
         <v>113</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>114</v>
@@ -3222,7 +3222,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>115</v>
@@ -3233,12 +3233,12 @@
         <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K33" s="2"/>
     </row>
@@ -3248,7 +3248,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>117</v>
@@ -3259,7 +3259,7 @@
         <v>118</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -3272,7 +3272,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>119</v>
@@ -3287,7 +3287,7 @@
         <v>105</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>122</v>
@@ -3302,7 +3302,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>123</v>
@@ -3315,7 +3315,7 @@
         <v>125</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3328,7 +3328,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>126</v>
@@ -3339,7 +3339,7 @@
         <v>127</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3354,7 +3354,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>128</v>
@@ -3369,7 +3369,7 @@
         <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3382,7 +3382,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>131</v>
@@ -3391,7 +3391,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3404,7 +3404,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>132</v>
@@ -3419,7 +3419,7 @@
         <v>135</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>136</v>
@@ -3438,7 +3438,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>137</v>
@@ -3447,7 +3447,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -3460,7 +3460,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>138</v>
@@ -3471,7 +3471,7 @@
         <v>139</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -3484,7 +3484,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>140</v>
@@ -3495,7 +3495,7 @@
         <v>141</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -3508,7 +3508,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>142</v>
@@ -3519,12 +3519,12 @@
         <v>143</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K44" s="2">
         <v>1234</v>
@@ -3536,7 +3536,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>144</v>
@@ -3547,7 +3547,7 @@
         <v>145</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3560,20 +3560,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H46" s="2">
         <v>17000</v>
@@ -3588,7 +3588,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>147</v>
@@ -3601,7 +3601,7 @@
         <v>149</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>150</v>
@@ -3616,7 +3616,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>151</v>
@@ -3627,12 +3627,12 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K48" s="2"/>
     </row>
@@ -3642,7 +3642,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>153</v>
@@ -3651,7 +3651,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3664,7 +3664,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>154</v>
@@ -3677,7 +3677,7 @@
         <v>65</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>156</v>
@@ -3692,7 +3692,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>157</v>
@@ -3705,7 +3705,7 @@
         <v>159</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>160</v>
@@ -3720,7 +3720,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>161</v>
@@ -3733,7 +3733,7 @@
         <v>163</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>164</v>
@@ -3748,7 +3748,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>165</v>
@@ -3761,7 +3761,7 @@
         <v>167</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>168</v>
@@ -3776,7 +3776,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>169</v>
@@ -3787,7 +3787,7 @@
         <v>170</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3802,7 +3802,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>171</v>
@@ -3817,7 +3817,7 @@
         <v>174</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>175</v>
@@ -3834,7 +3834,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>179</v>
@@ -3845,7 +3845,7 @@
         <v>180</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3858,7 +3858,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>181</v>
@@ -3873,7 +3873,7 @@
         <v>176</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>184</v>
@@ -3888,7 +3888,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>185</v>
@@ -3903,7 +3903,7 @@
         <v>188</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>189</v>
@@ -3918,7 +3918,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>190</v>
@@ -3933,14 +3933,14 @@
         <v>193</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>194</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K59" s="2">
         <v>1234</v>
@@ -3952,7 +3952,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>195</v>
@@ -3967,7 +3967,7 @@
         <v>198</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>199</v>
@@ -3982,7 +3982,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>200</v>
@@ -3997,7 +3997,7 @@
         <v>203</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -4010,7 +4010,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>204</v>
@@ -4023,7 +4023,7 @@
         <v>159</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>206</v>
@@ -4042,7 +4042,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>207</v>
@@ -4055,14 +4055,14 @@
         <v>209</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>210</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K63" s="2"/>
     </row>
@@ -4072,7 +4072,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>211</v>
@@ -4083,7 +4083,7 @@
         <v>212</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -4096,7 +4096,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>213</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -4120,7 +4120,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>215</v>
@@ -4135,7 +4135,7 @@
         <v>198</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>218</v>
@@ -4150,7 +4150,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>219</v>
@@ -4165,7 +4165,7 @@
         <v>222</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>223</v>
@@ -4180,7 +4180,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>224</v>
@@ -4195,7 +4195,7 @@
         <v>227</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>228</v>
@@ -4210,7 +4210,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>229</v>
@@ -4225,7 +4225,7 @@
         <v>232</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>233</v>
@@ -4242,7 +4242,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>234</v>
@@ -4253,7 +4253,7 @@
         <v>227</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -4266,7 +4266,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>235</v>
@@ -4281,7 +4281,7 @@
         <v>238</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>239</v>
@@ -4296,7 +4296,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>240</v>
@@ -4307,7 +4307,7 @@
         <v>238</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -4320,7 +4320,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>241</v>
@@ -4333,7 +4333,7 @@
         <v>243</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -4346,7 +4346,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>244</v>
@@ -4359,12 +4359,12 @@
         <v>246</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K74" s="2">
         <v>1234</v>
@@ -4376,23 +4376,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4404,16 +4404,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4426,23 +4426,23 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -4454,23 +4454,23 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4482,23 +4482,23 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2">
@@ -4514,10 +4514,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4525,7 +4525,7 @@
         <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -4538,27 +4538,27 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K81" s="2"/>
     </row>
@@ -4568,18 +4568,18 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -4592,23 +4592,23 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -4620,20 +4620,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>24</v>
@@ -4648,18 +4648,18 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -4674,16 +4674,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -4696,18 +4696,18 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -4720,23 +4720,23 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -4748,21 +4748,21 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K89" s="2"/>
     </row>
@@ -4772,18 +4772,18 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -4796,18 +4796,18 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -4820,23 +4820,23 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4848,18 +4848,18 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -4872,23 +4872,23 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K94" s="2"/>
     </row>
@@ -4898,23 +4898,23 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -4926,23 +4926,23 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -4954,16 +4954,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -4980,18 +4980,18 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -5004,23 +5004,23 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -5032,18 +5032,18 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -5058,16 +5058,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -5080,23 +5080,23 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K102" s="2"/>
     </row>
@@ -5106,23 +5106,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -5134,18 +5134,18 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -5158,22 +5158,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -5184,10 +5184,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5195,7 +5195,7 @@
         <v>209</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -5208,10 +5208,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5219,12 +5219,12 @@
         <v>30</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K107" s="2">
         <v>1234</v>
@@ -5236,23 +5236,23 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -5264,23 +5264,23 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -5292,18 +5292,18 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -5316,27 +5316,27 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K111" s="2"/>
     </row>
@@ -5346,20 +5346,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="G112" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -5372,21 +5372,21 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -5398,10 +5398,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5409,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -5422,23 +5422,23 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2">
@@ -5454,21 +5454,21 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -5480,20 +5480,20 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="G117" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>103</v>
@@ -5510,10 +5510,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5521,7 +5521,7 @@
         <v>41</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -5534,27 +5534,27 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K119" s="2">
         <v>1234</v>
@@ -5566,23 +5566,23 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H120" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -5594,23 +5594,23 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="G121" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -5622,23 +5622,23 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
@@ -5650,23 +5650,23 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -5678,23 +5678,23 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="G124" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H124" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
@@ -5706,20 +5706,20 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="G125" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>58</v>
@@ -5734,16 +5734,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -5758,23 +5758,23 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G127" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H127" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
@@ -5786,23 +5786,23 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>139</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -5814,23 +5814,23 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -5842,23 +5842,23 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G130" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
@@ -5870,23 +5870,23 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -5898,23 +5898,23 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="G132" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H132" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -5926,23 +5926,23 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="G133" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2">
@@ -5958,23 +5958,23 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="G134" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H134" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -5986,23 +5986,23 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="G135" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -6014,16 +6014,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -6036,27 +6036,27 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="G137" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H137" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K137" s="2">
         <v>1234</v>
@@ -6068,23 +6068,23 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="G138" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
@@ -6096,10 +6096,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -6107,7 +6107,7 @@
         <v>143</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -6120,23 +6120,23 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K140" s="2"/>
     </row>
@@ -6146,20 +6146,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>176</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>90</v>
@@ -6174,20 +6174,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="G142" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -6202,18 +6202,18 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -6226,23 +6226,23 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>238</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -6254,23 +6254,23 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="G145" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2">
@@ -6286,18 +6286,18 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -6310,16 +6310,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -6332,16 +6332,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -6354,20 +6354,20 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -6380,23 +6380,23 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="G150" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -6408,10 +6408,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6419,7 +6419,7 @@
         <v>15</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -6432,18 +6432,18 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -6456,21 +6456,21 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2">
@@ -6484,23 +6484,23 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="G154" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -6512,25 +6512,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K155" s="2">
         <v>1234</v>
@@ -6542,16 +6542,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -6564,18 +6564,18 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -6588,20 +6588,20 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="G158" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -6616,20 +6616,20 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>198</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>98</v>
@@ -6644,23 +6644,23 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="G160" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2">
@@ -6676,23 +6676,23 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="G161" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H161" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -6704,10 +6704,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6715,7 +6715,7 @@
         <v>15</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -6728,27 +6728,27 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K163" s="2"/>
     </row>
@@ -6758,23 +6758,23 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -6786,23 +6786,23 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="G165" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H165" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2">
@@ -6816,23 +6816,23 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -6844,23 +6844,23 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -6872,23 +6872,23 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="G168" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -6900,23 +6900,23 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -6928,27 +6928,27 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K170" s="2">
         <v>1234</v>
@@ -6960,10 +6960,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6971,7 +6971,7 @@
         <v>8</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -6984,10 +6984,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6995,7 +6995,7 @@
         <v>57</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -7008,10 +7008,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -7019,7 +7019,7 @@
         <v>86</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -7032,10 +7032,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -7043,7 +7043,7 @@
         <v>227</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -7056,23 +7056,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -7084,20 +7084,20 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="G176" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -7112,23 +7112,23 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="G177" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H177" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -7140,18 +7140,18 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -7168,18 +7168,18 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -7192,10 +7192,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -7203,7 +7203,7 @@
         <v>86</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -7216,20 +7216,20 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -7242,10 +7242,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7253,7 +7253,7 @@
         <v>81</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -7266,10 +7266,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7277,12 +7277,12 @@
         <v>143</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K183" s="2"/>
     </row>
@@ -7292,18 +7292,18 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -7316,23 +7316,23 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K185" s="2">
         <v>1234</v>
@@ -7344,18 +7344,18 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -7368,18 +7368,18 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -7394,18 +7394,18 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -7418,10 +7418,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7429,7 +7429,7 @@
         <v>102</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -7442,18 +7442,18 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -7466,10 +7466,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7477,7 +7477,7 @@
         <v>30</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -7490,23 +7490,23 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>176</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -7518,7 +7518,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>73</v>
@@ -7527,7 +7527,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -7540,10 +7540,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -7551,7 +7551,7 @@
         <v>12</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -7564,10 +7564,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -7575,7 +7575,7 @@
         <v>41</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -7588,10 +7588,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -7599,7 +7599,7 @@
         <v>49</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -7616,18 +7616,18 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -7640,18 +7640,18 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -7666,18 +7666,18 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -7690,23 +7690,23 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H200" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
@@ -7718,23 +7718,23 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -7746,23 +7746,23 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>127</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
@@ -7774,23 +7774,23 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K203" s="2">
         <v>1234</v>
@@ -7802,10 +7802,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7813,7 +7813,7 @@
         <v>149</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -7826,18 +7826,18 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -7850,25 +7850,25 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="E206" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="F206" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="G206" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H206" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
@@ -7880,10 +7880,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7891,12 +7891,12 @@
         <v>145</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K207" s="2"/>
     </row>
@@ -7906,20 +7906,20 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C208" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -7932,18 +7932,18 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -7956,18 +7956,18 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -7980,7 +7980,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>26</v>
@@ -7991,7 +7991,7 @@
         <v>25</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
@@ -8004,10 +8004,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -8015,7 +8015,7 @@
         <v>238</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -8028,10 +8028,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -8039,7 +8039,7 @@
         <v>163</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -8054,23 +8054,23 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
@@ -8082,23 +8082,23 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
@@ -8110,20 +8110,20 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
@@ -8136,10 +8136,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -8147,7 +8147,7 @@
         <v>227</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -8164,10 +8164,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -8175,7 +8175,7 @@
         <v>65</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
@@ -8188,18 +8188,18 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
@@ -8212,18 +8212,18 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
@@ -8236,25 +8236,25 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K221" s="2">
         <v>1234</v>
@@ -8266,23 +8266,23 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
@@ -8294,18 +8294,18 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
@@ -8318,10 +8318,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8329,7 +8329,7 @@
         <v>49</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
@@ -8342,18 +8342,18 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
@@ -8366,20 +8366,20 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H226" s="2">
         <v>77454</v>
@@ -8394,27 +8394,27 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I227" s="2"/>
       <c r="J227" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K227" s="2"/>
     </row>
@@ -8424,20 +8424,20 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
@@ -8450,10 +8450,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8461,7 +8461,7 @@
         <v>12</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
@@ -8476,20 +8476,20 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
@@ -8502,18 +8502,18 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
@@ -8526,20 +8526,20 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F232" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="F232" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="G232" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H232" s="2">
         <v>75231</v>
@@ -8554,20 +8554,20 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H233" s="2">
         <v>31000</v>
@@ -8586,27 +8586,27 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H234" s="2">
         <v>31042</v>
       </c>
       <c r="I234" s="2"/>
       <c r="J234" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K234" s="2">
         <v>1234</v>
